--- a/tables/DE/exp3/DE_table2_F2_dim10.xlsx
+++ b/tables/DE/exp3/DE_table2_F2_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>8178154367.613989</v>
       </c>
       <c r="AZ2" t="n">
-        <v>24254694957.89484</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>16055018115.74518</v>
+        <v>15891024578.90219</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>11184402599.3645</v>
@@ -1011,15 +1002,12 @@
         <v>4764111470.444869</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8673551087.01115</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>12085546818.20052</v>
+        <v>12153786732.82431</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>858466799.8533976</v>
@@ -1172,15 +1160,12 @@
         <v>1158286532.404255</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1274858713.024424</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>1209709636.514818</v>
+        <v>1208406654.984627</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>333</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>12175.5743748</v>
@@ -1333,15 +1318,12 @@
         <v>9865.047696449999</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4617.79295167</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>9420.94696178</v>
+        <v>9517.010041990001</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>666</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>12175.47527521</v>
@@ -1494,15 +1476,12 @@
         <v>78.24799983</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41.3134883</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>3727.30015551</v>
+        <v>3801.01988885</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>12175.47527521</v>
@@ -1655,15 +1634,12 @@
         <v>66.68802126</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>3139.97693547</v>
+        <v>3201.95020445</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1333</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>12175.47527521</v>
@@ -1816,15 +1792,12 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>3025.67331377</v>
+        <v>3085.36051031</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1666</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>12175.47527521</v>
@@ -1977,15 +1950,12 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>2980.51959627</v>
+        <v>3039.30371846</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1999</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>12175.47527521</v>
@@ -2138,15 +2108,12 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>2946.00535919</v>
+        <v>3004.09919664</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>2332</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>12175.47527521</v>
@@ -2299,15 +2266,12 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>2928.66787455</v>
+        <v>2986.41496231</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2666</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>12175.47527521</v>
@@ -2460,15 +2424,12 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>2927.36596251</v>
+        <v>2985.08701203</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2999</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>12175.47527521</v>
@@ -2621,15 +2582,12 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>2927.23652985</v>
+        <v>2984.95499071</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>3332</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>12175.47527521</v>
@@ -2782,10 +2740,7 @@
         <v>63.27659667</v>
       </c>
       <c r="AZ14" t="n">
-        <v>41.3134866</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>2927.07913028</v>
+        <v>2984.79444316</v>
       </c>
     </row>
   </sheetData>
